--- a/заказы/статистика филиалы/2024/04,24/04,04,24 ПОКОМ ЗПФ филиалы/дв 04,04,24 бррсч пок зпф.xlsx
+++ b/заказы/статистика филиалы/2024/04,24/04,04,24 ПОКОМ ЗПФ филиалы/дв 04,04,24 бррсч пок зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\04,04,24 ПОКОМ ЗПФ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\04,24\04,04,24 ПОКОМ ЗПФ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9C827C-7659-4C46-89E3-D150C18378B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA60E1E-D1EF-4A86-AB2C-5302C5E4124B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="112">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>08,04,</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -812,13 +815,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AX500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="AE6" sqref="AE6:AE76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1062,7 @@
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1128,7 +1132,7 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1318,7 +1322,9 @@
         <f>AC6*AB6*G6</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="1"/>
+      <c r="AE6" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -1339,7 +1345,7 @@
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1446,7 +1452,7 @@
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1553,7 +1559,7 @@
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1667,7 @@
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1850,7 +1856,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="1"/>
+      <c r="AE11" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -1871,7 +1879,7 @@
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1978,7 +1986,7 @@
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2155,7 +2163,9 @@
       </c>
       <c r="AC14" s="24"/>
       <c r="AD14" s="21"/>
-      <c r="AE14" s="1"/>
+      <c r="AE14" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -2246,7 +2256,9 @@
       </c>
       <c r="AC15" s="24"/>
       <c r="AD15" s="21"/>
-      <c r="AE15" s="1"/>
+      <c r="AE15" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -2267,7 +2279,7 @@
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>47</v>
       </c>
@@ -2434,7 +2446,9 @@
       </c>
       <c r="AC17" s="24"/>
       <c r="AD17" s="21"/>
-      <c r="AE17" s="1"/>
+      <c r="AE17" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -2525,7 +2539,9 @@
       </c>
       <c r="AC18" s="24"/>
       <c r="AD18" s="21"/>
-      <c r="AE18" s="1"/>
+      <c r="AE18" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -2628,7 +2644,9 @@
         <f t="shared" ref="AD19:AD34" si="11">AC19*AB19*G19</f>
         <v>0</v>
       </c>
-      <c r="AE19" s="1"/>
+      <c r="AE19" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -2649,7 +2667,7 @@
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2838,7 +2856,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="1"/>
+      <c r="AE21" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
@@ -2859,7 +2879,7 @@
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -3048,7 +3068,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="1"/>
+      <c r="AE23" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
@@ -3069,7 +3091,7 @@
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -3262,7 +3284,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="1"/>
+      <c r="AE25" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
@@ -3283,7 +3307,7 @@
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -3390,7 +3414,7 @@
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -3497,7 +3521,7 @@
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,7 +3628,7 @@
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -3714,7 +3738,7 @@
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -3824,7 +3848,7 @@
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -3931,7 +3955,7 @@
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -4038,7 +4062,7 @@
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -4234,7 +4258,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="1"/>
+      <c r="AE34" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -4325,7 +4351,9 @@
       </c>
       <c r="AC35" s="24"/>
       <c r="AD35" s="21"/>
-      <c r="AE35" s="1"/>
+      <c r="AE35" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
@@ -4416,7 +4444,9 @@
       </c>
       <c r="AC36" s="24"/>
       <c r="AD36" s="21"/>
-      <c r="AE36" s="1"/>
+      <c r="AE36" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -4507,7 +4537,9 @@
       </c>
       <c r="AC37" s="24"/>
       <c r="AD37" s="21"/>
-      <c r="AE37" s="1"/>
+      <c r="AE37" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
@@ -4528,7 +4560,7 @@
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
@@ -4705,7 +4737,9 @@
       </c>
       <c r="AC39" s="24"/>
       <c r="AD39" s="21"/>
-      <c r="AE39" s="1"/>
+      <c r="AE39" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
@@ -4796,7 +4830,9 @@
       </c>
       <c r="AC40" s="24"/>
       <c r="AD40" s="21"/>
-      <c r="AE40" s="1"/>
+      <c r="AE40" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
@@ -4887,7 +4923,9 @@
       </c>
       <c r="AC41" s="24"/>
       <c r="AD41" s="21"/>
-      <c r="AE41" s="1"/>
+      <c r="AE41" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
@@ -4908,7 +4946,7 @@
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -5088,7 +5126,9 @@
       </c>
       <c r="AC43" s="24"/>
       <c r="AD43" s="21"/>
-      <c r="AE43" s="1"/>
+      <c r="AE43" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
@@ -5179,7 +5219,9 @@
       </c>
       <c r="AC44" s="24"/>
       <c r="AD44" s="21"/>
-      <c r="AE44" s="1"/>
+      <c r="AE44" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
@@ -5200,7 +5242,7 @@
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>77</v>
       </c>
@@ -5307,7 +5349,7 @@
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>78</v>
       </c>
@@ -5414,7 +5456,7 @@
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
@@ -5524,7 +5566,7 @@
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
@@ -5634,7 +5676,7 @@
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
@@ -5741,7 +5783,7 @@
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -5936,7 +5978,9 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AE51" s="1"/>
+      <c r="AE51" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
@@ -5957,7 +6001,7 @@
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>84</v>
       </c>
@@ -6066,7 +6110,7 @@
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>85</v>
       </c>
@@ -6176,7 +6220,7 @@
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
@@ -6353,7 +6397,9 @@
       </c>
       <c r="AC55" s="24"/>
       <c r="AD55" s="21"/>
-      <c r="AE55" s="1"/>
+      <c r="AE55" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -6444,7 +6490,9 @@
       </c>
       <c r="AC56" s="24"/>
       <c r="AD56" s="21"/>
-      <c r="AE56" s="1"/>
+      <c r="AE56" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -6535,7 +6583,9 @@
       </c>
       <c r="AC57" s="24"/>
       <c r="AD57" s="21"/>
-      <c r="AE57" s="1"/>
+      <c r="AE57" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -6626,7 +6676,9 @@
       </c>
       <c r="AC58" s="24"/>
       <c r="AD58" s="21"/>
-      <c r="AE58" s="1"/>
+      <c r="AE58" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
@@ -6647,7 +6699,7 @@
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>91</v>
       </c>
@@ -6742,7 +6794,7 @@
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>92</v>
       </c>
@@ -6837,7 +6889,7 @@
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>93</v>
       </c>
@@ -6932,7 +6984,7 @@
       <c r="AW61" s="1"/>
       <c r="AX61" s="1"/>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>94</v>
       </c>
@@ -7114,7 +7166,9 @@
         <f t="shared" ref="AD63:AD76" si="20">AC63*AB63*G63</f>
         <v>27</v>
       </c>
-      <c r="AE63" s="1"/>
+      <c r="AE63" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
@@ -7135,7 +7189,7 @@
       <c r="AW63" s="1"/>
       <c r="AX63" s="1"/>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>96</v>
       </c>
@@ -7328,7 +7382,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE65" s="1"/>
+      <c r="AE65" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
@@ -7437,7 +7493,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE66" s="1"/>
+      <c r="AE66" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
@@ -7544,7 +7602,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE67" s="1"/>
+      <c r="AE67" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
@@ -7651,7 +7711,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE68" s="1"/>
+      <c r="AE68" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
@@ -7758,7 +7820,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE69" s="1"/>
+      <c r="AE69" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
@@ -7861,7 +7925,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE70" s="1"/>
+      <c r="AE70" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
@@ -7968,7 +8034,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE71" s="1"/>
+      <c r="AE71" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
@@ -7989,7 +8057,7 @@
       <c r="AW71" s="1"/>
       <c r="AX71" s="1"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>104</v>
       </c>
@@ -8096,7 +8164,7 @@
       <c r="AW72" s="1"/>
       <c r="AX72" s="1"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>105</v>
       </c>
@@ -8289,7 +8357,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE74" s="1"/>
+      <c r="AE74" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
@@ -8310,7 +8380,7 @@
       <c r="AW74" s="1"/>
       <c r="AX74" s="1"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>107</v>
       </c>
@@ -8505,7 +8575,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE76" s="1"/>
+      <c r="AE76" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
@@ -30575,7 +30647,23 @@
       <c r="AX500" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AD76" xr:uid="{CAC6D1B8-9368-4720-9C9C-D0A0D94559F8}"/>
+  <autoFilter ref="A3:AD76" xr:uid="{CAC6D1B8-9368-4720-9C9C-D0A0D94559F8}">
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="матрица"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="0"/>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
